--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Brands" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="Storages" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Master Categories" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Categories Variants" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Products" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="373">
   <si>
     <t xml:space="preserve">Logo</t>
   </si>
@@ -864,16 +865,380 @@
   </si>
   <si>
     <t xml:space="preserve">Category for various Fridge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity Sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selling Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wattage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country of Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batteries Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batteries Included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectivity Technology</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Products/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Electronics/</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mobiles/Brand 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-performance laptop for gaming and work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop XYZ-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hochleistungs-Laptop für Gaming und Arbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinateur XYZ-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinateur portable haute performance pour le jeu et le travail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Manufacturers/Manufacturer A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Categories/Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14x10x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XYZ-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDMI, USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Motherboards/AlphaBoard X100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Operating Systems/Windows 10 Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Processors/Qualcomm Snapdragon 8cx Gen 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Storages/Kingston DDR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Storages/Samsung EVO 970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Storages/Intel Optane 905P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3G, 4G, 5G</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Products/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Electronics/</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Refrigerators/Brand 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fridge X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K Ultra HD Smart TV with built-in streaming apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart TV LED-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K Ultra HD Smart TV mit integrierten Streaming-Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Téléviseur intelligent 4K Ultra HD avec applications de streaming intégrées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Manufacturers/Manufacturer B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Televisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Refrigerators/Brand 1/Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55x30x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Power Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Products/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Electronics/</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tvs/Brand 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DSLR camera with advanced shooting capabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera Pro-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSLR-Kamera mit erweiterten Aufnahmefunktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appareil photo Pro-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appareil photo reflex avec des capacités de prise de vue avancées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/TVs/Brand 1/Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x4x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera Pro-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB, SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Motherboards/SlimForm S500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Operating Systems/FreeBSD 13.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Processors/AMD Ryzen 5 5600G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Storages/Corsair Vengeance LPX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -894,6 +1259,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -938,7 +1315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -948,6 +1325,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -970,11 +1359,11 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.8"/>
@@ -1181,11 +1570,11 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1439,11 +1828,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.84"/>
@@ -1679,11 +2068,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.61"/>
@@ -1998,11 +2387,11 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.52"/>
@@ -2371,11 +2760,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -2691,11 +3080,11 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
@@ -2901,11 +3290,11 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
@@ -3022,4 +3411,616 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AV4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="13.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="20.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>9030</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>930</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>550</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>522</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>93939</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Categories Variants" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Products" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="377">
   <si>
     <t xml:space="preserve">Logo</t>
   </si>
@@ -51,13 +51,13 @@
     <t xml:space="preserve">German Contact</t>
   </si>
   <si>
-    <t xml:space="preserve">French Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Contact</t>
+    <t xml:space="preserve">Spanish Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish Contact</t>
   </si>
   <si>
     <t xml:space="preserve">Country</t>
@@ -171,7 +171,7 @@
     <t xml:space="preserve">German Description</t>
   </si>
   <si>
-    <t xml:space="preserve">French Description</t>
+    <t xml:space="preserve">Spanish Description</t>
   </si>
   <si>
     <t xml:space="preserve">Brand</t>
@@ -843,28 +843,22 @@
     <t xml:space="preserve">Catégorie pour les accessoires automobiles</t>
   </si>
   <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category for Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category for Laptop</t>
+  </si>
+  <si>
     <t xml:space="preserve">TV</t>
   </si>
   <si>
     <t xml:space="preserve">Category for TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category for Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category for AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category for various Fridge.</t>
   </si>
   <si>
     <t xml:space="preserve">Storage Path</t>
@@ -990,6 +984,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Electronics/</t>
     </r>
@@ -1005,19 +1000,22 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">SKU10001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mobile 1</t>
   </si>
   <si>
-    <t xml:space="preserve">High-performance laptop for gaming and work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop XYZ-200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochleistungs-Laptop für Gaming und Arbeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinateur XYZ-200</t>
+    <t xml:space="preserve">High-performance mobiles daily work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile XYZ-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hochleistungs-Mobiles für Gaming und Arbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinmar XYZ-200</t>
   </si>
   <si>
     <t xml:space="preserve">Ordinateur portable haute performance pour le jeu et le travail</t>
@@ -1029,15 +1027,15 @@
     <t xml:space="preserve">/Categories/Electronics</t>
   </si>
   <si>
-    <t xml:space="preserve">Laptops</t>
-  </si>
-  <si>
     <t xml:space="preserve">Red</t>
   </si>
   <si>
     <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1</t>
   </si>
   <si>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/video/video.mp4</t>
+  </si>
+  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
@@ -1053,7 +1051,7 @@
     <t xml:space="preserve">AC Adapter</t>
   </si>
   <si>
-    <t xml:space="preserve">/Motherboards/AlphaBoard X100</t>
+    <t xml:space="preserve">/Motherboards/ProGamer Extreme</t>
   </si>
   <si>
     <t xml:space="preserve">/Operating Systems/Windows 10 Home</t>
@@ -1071,7 +1069,7 @@
     <t xml:space="preserve">/Storages/Intel Optane 905P</t>
   </si>
   <si>
-    <t xml:space="preserve">3G, 4G, 5G</t>
+    <t xml:space="preserve">3G,4G,5G</t>
   </si>
   <si>
     <r>
@@ -1089,8 +1087,9 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Electronics/</t>
+      <t xml:space="preserve">Electronics/Laptop</t>
     </r>
     <r>
       <rPr>
@@ -1100,35 +1099,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Refrigerators/Brand 1</t>
+      <t xml:space="preserve">/Brand 1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fridge X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K Ultra HD Smart TV with built-in streaming apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart TV LED-1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K Ultra HD Smart TV mit integrierten Streaming-Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléviseur intelligent 4K Ultra HD avec applications de streaming intégrées</t>
+    <t xml:space="preserve">SKU10002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-performance laptop for gaming and work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop XYZ-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hochleistungs-Laptop für Gaming und Arbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinateur XYZ-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Téléviseur intelligent avec applications de streaming intégrées</t>
   </si>
   <si>
     <t xml:space="preserve">/Manufacturers/Manufacturer B</t>
   </si>
   <si>
-    <t xml:space="preserve">Televisions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blue</t>
   </si>
   <si>
-    <t xml:space="preserve">/PRODUCTS/Refrigerators/Brand 1/Model 1</t>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -1140,10 +1142,19 @@
     <t xml:space="preserve">LED-1000</t>
   </si>
   <si>
+    <t xml:space="preserve"> Laptop-1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC Power Supply</t>
   </si>
   <si>
     <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Motherboards/BudgetMaster B450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Storages/Samsung EVO 90</t>
   </si>
   <si>
     <r>
@@ -1161,6 +1172,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Electronics/</t>
     </r>
@@ -1176,24 +1188,27 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DSLR camera with advanced shooting capabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera Pro-500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSLR-Kamera mit erweiterten Aufnahmefunktionen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appareil photo Pro-500</t>
+    <t xml:space="preserve">SKU10003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K Ultra HD Smart TV with built-in streaming apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Pro-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K Ultra HD Smart TV mit integrierten Streaming-Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart TV LED-1000</t>
   </si>
   <si>
     <t xml:space="preserve">Appareil photo reflex avec des capacités de prise de vue avancées</t>
   </si>
   <si>
-    <t xml:space="preserve">Cameras</t>
-  </si>
-  <si>
     <t xml:space="preserve">Green</t>
   </si>
   <si>
@@ -1209,7 +1224,7 @@
     <t xml:space="preserve">Pro-500</t>
   </si>
   <si>
-    <t xml:space="preserve">Camera Pro-500</t>
+    <t xml:space="preserve">TV-500</t>
   </si>
   <si>
     <t xml:space="preserve">USB, SD</t>
@@ -1218,7 +1233,7 @@
     <t xml:space="preserve">Battery</t>
   </si>
   <si>
-    <t xml:space="preserve">/Motherboards/SlimForm S500</t>
+    <t xml:space="preserve">/Motherboards/PowerSpeed Z200</t>
   </si>
   <si>
     <t xml:space="preserve">/Operating Systems/FreeBSD 13.0</t>
@@ -1238,7 +1253,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1266,11 +1281,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1315,12 +1325,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1360,24 +1366,24 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1393,26 +1399,26 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>21</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
@@ -1571,22 +1577,22 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="56.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="56.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>31</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>34</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>35</v>
       </c>
@@ -1714,11 +1720,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -1727,7 +1733,7 @@
       <c r="D5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -1736,7 +1742,7 @@
       <c r="G5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -1746,11 +1752,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -1759,7 +1765,7 @@
       <c r="D6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
@@ -1768,7 +1774,7 @@
       <c r="G6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="0" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="0" t="s">
@@ -1778,11 +1784,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -1791,7 +1797,7 @@
       <c r="D7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
@@ -1800,7 +1806,7 @@
       <c r="G7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="0" t="s">
@@ -1828,222 +1834,222 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G9" s="0" t="s">
@@ -2068,36 +2074,36 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -2113,256 +2119,256 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="1" t="n">
         <v>20.3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>107</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>107</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>107</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>107</v>
       </c>
       <c r="J9" s="0" t="s">
@@ -2387,36 +2393,36 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -2438,304 +2444,304 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>149</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>155</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>161</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>149</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>155</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>174</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>149</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>155</v>
       </c>
       <c r="L9" s="0" t="s">
@@ -2760,37 +2766,37 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -2806,256 +2812,256 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>188</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>204</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>209</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>188</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J9" s="0" t="s">
@@ -3081,194 +3087,194 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3288,120 +3294,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3420,42 +3408,43 @@
   </sheetPr>
   <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP4" activeCellId="0" sqref="AP4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="13.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="24.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="20.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="49.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="20.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -3463,16 +3452,16 @@
       <c r="D1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>47</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -3481,107 +3470,107 @@
       <c r="J1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>297</v>
       </c>
       <c r="AC1" s="0" t="s">
         <v>140</v>
       </c>
       <c r="AD1" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF1" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AH1" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AL1" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AM1" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AN1" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AP1" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AQ1" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AR1" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="AS1" s="0" t="s">
         <v>188</v>
@@ -3590,428 +3579,448 @@
         <v>204</v>
       </c>
       <c r="AU1" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>10001</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>9030</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="AN2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>9030</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>930</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>150000</v>
-      </c>
-      <c r="T2" s="3" t="n">
+      <c r="R3" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="T3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V2" s="3" t="n">
+      <c r="U3" s="2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>550</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>522</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="AL3" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>93939</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V4" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="W2" s="3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1170</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF2" s="3" t="n">
+      <c r="W4" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF4" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AG4" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AK4" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL4" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT4" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU4" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>10002</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>930</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="3" t="n">
-        <v>85</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>40000</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>550</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>522</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="AL3" s="3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="AN3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>10003</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>93939</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="3" t="n">
-        <v>95</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>1400</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA4" s="3" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="AC4" s="3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL4" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="387">
   <si>
     <t xml:space="preserve">Logo</t>
   </si>
@@ -699,6 +699,12 @@
     <t xml:space="preserve">2TB</t>
   </si>
   <si>
+    <t xml:space="preserve">Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Categories</t>
+  </si>
+  <si>
     <t xml:space="preserve">Electronics</t>
   </si>
   <si>
@@ -843,12 +849,52 @@
     <t xml:space="preserve">Catégorie pour les accessoires automobiles</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Electronics</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Mobile</t>
   </si>
   <si>
     <t xml:space="preserve">Category for Mobile</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/Categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/Electronics</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Laptop</t>
   </si>
   <si>
@@ -877,6 +923,9 @@
   </si>
   <si>
     <t xml:space="preserve">Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Image</t>
   </si>
   <si>
     <t xml:space="preserve">Images</t>
@@ -1027,10 +1076,16 @@
     <t xml:space="preserve">/Categories/Electronics</t>
   </si>
   <si>
+    <t xml:space="preserve">/Categories/Electronics/Mobile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red</t>
   </si>
   <si>
-    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1</t>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/mobile1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/mobile1.jpg,/PRODUCTS/Mobiles/Brand 1/Model 1/images/mobile1.webp</t>
   </si>
   <si>
     <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/video/video.mp4</t>
@@ -1127,10 +1182,10 @@
     <t xml:space="preserve">/Manufacturers/Manufacturer B</t>
   </si>
   <si>
+    <t xml:space="preserve">/Categories/Electronics/Laptop</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -1209,12 +1264,12 @@
     <t xml:space="preserve">Appareil photo reflex avec des capacités de prise de vue avancées</t>
   </si>
   <si>
+    <t xml:space="preserve">/Categories/Electronics/TV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green</t>
   </si>
   <si>
-    <t xml:space="preserve">/PRODUCTS/TVs/Brand 1/Model 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -1243,6 +1298,40 @@
   </si>
   <si>
     <t xml:space="preserve">/Storages/Corsair Vengeance LPX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/Products/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Electronics/</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mobiles/Brand 1/Mobile 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3G,4G,5G,2G</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1342,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1280,7 +1369,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1325,7 +1425,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1334,15 +1434,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1369,7 +1477,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1580,7 +1688,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1838,7 +1946,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2078,7 +2186,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2397,7 +2505,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2770,7 +2878,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3084,198 +3192,295 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>223</v>
+    <row r="2" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3294,98 +3499,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>271</v>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>235</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>241</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3406,13 +3624,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP4" activeCellId="0" sqref="AP4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
@@ -3421,30 +3639,30 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="49.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="56.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="49.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="20.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -3474,553 +3692,694 @@
         <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AC1" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD1" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="AD1" s="0" t="s">
-        <v>296</v>
-      </c>
       <c r="AE1" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AS1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT1" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="AU1" s="0" t="s">
-        <v>311</v>
-      </c>
       <c r="AV1" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="AW1" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>9030</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>9030</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>150000</v>
-      </c>
-      <c r="T2" s="2" t="n">
+      <c r="AI2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V2" s="2" t="n">
+      <c r="AL2" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>930</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>522</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>93939</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>1200</v>
       </c>
-      <c r="W2" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>1170</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF2" s="2" t="n">
+      <c r="X4" s="4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>2022</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AH4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AL4" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AO2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="AL5" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU5" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="AV5" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>930</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>522</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>220</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>93939</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>1400</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>337</v>
+      <c r="AW5" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -876,25 +876,6 @@
     <t xml:space="preserve">Category for Mobile</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/Categories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/Electronics</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Laptop</t>
   </si>
   <si>
@@ -1306,6 +1287,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/Products/</t>
     </r>
@@ -1314,6 +1296,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Electronics/</t>
     </r>
@@ -1323,12 +1306,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Mobiles/Brand 1/Mobile 1</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">SKU10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile 1 Variants</t>
   </si>
   <si>
     <t xml:space="preserve">3G,4G,5G,2G</t>
@@ -1342,7 +1329,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1369,18 +1356,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1425,7 +1401,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1438,19 +1414,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,7 +1445,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1688,7 +1656,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1946,7 +1914,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2186,7 +2154,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2505,7 +2473,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2878,7 +2846,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3198,7 +3166,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3415,7 +3383,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3439,13 +3407,13 @@
     </row>
     <row r="11" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>239</v>
@@ -3462,13 +3430,13 @@
     </row>
     <row r="12" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>227</v>
@@ -3505,7 +3473,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3538,7 +3506,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3562,13 +3530,13 @@
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>239</v>
@@ -3585,13 +3553,13 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>227</v>
@@ -3627,12 +3595,13 @@
   <dimension ref="A1:AW5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16"/>
@@ -3659,10 +3628,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>282</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -3692,106 +3661,106 @@
         <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>300</v>
       </c>
       <c r="AD1" s="0" t="s">
         <v>140</v>
       </c>
       <c r="AE1" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF1" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AH1" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AL1" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AM1" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AN1" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AP1" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AQ1" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AR1" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AS1" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>315</v>
       </c>
       <c r="AT1" s="0" t="s">
         <v>188</v>
@@ -3800,585 +3769,585 @@
         <v>204</v>
       </c>
       <c r="AV1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW1" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="AW1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>9030</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>9030</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="M3" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>930</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>150000</v>
-      </c>
-      <c r="U2" s="4" t="n">
+      <c r="S3" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="U3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="V2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W2" s="4" t="n">
+      <c r="V3" s="3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>550</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>522</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>93939</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W4" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="X2" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1170</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG2" s="4" t="n">
+      <c r="X4" s="3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG4" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AH4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AK4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AL2" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO2" s="4" t="n">
+      <c r="AL4" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AK5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AP2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AL5" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV5" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="AV2" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>930</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>85</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>550</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>522</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>93939</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>95</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM5" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AW5" s="2" t="s">
         <v>386</v>
       </c>
     </row>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -1066,10 +1066,11 @@
     <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/mobile1.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/mobile1.jpg,/PRODUCTS/Mobiles/Brand 1/Model 1/images/mobile1.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/video/video.mp4</t>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/1.webp,/PRODUCTS/Mobiles/Brand 1/Model 1/images/2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+/PRODUCTS/Mobiles/Brand 1/Model 1/video/1.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -1329,7 +1330,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1357,6 +1358,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1401,7 +1408,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1419,6 +1426,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1445,7 +1456,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1656,7 +1667,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1914,7 +1925,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2154,7 +2165,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2473,7 +2484,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2846,7 +2857,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3166,7 +3177,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3473,7 +3484,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3594,11 +3605,11 @@
   </sheetPr>
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -3827,7 +3838,7 @@
       <c r="Q2" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>331</v>
       </c>
       <c r="S2" s="3" t="n">
@@ -3973,10 +3984,10 @@
       <c r="P3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>331</v>
       </c>
       <c r="S3" s="3" t="n">
@@ -4122,10 +4133,10 @@
       <c r="P4" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>331</v>
       </c>
       <c r="S4" s="3" t="n">

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -1063,7 +1063,7 @@
     <t xml:space="preserve">Red</t>
   </si>
   <si>
-    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/mobile1.jpg</t>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/master.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/1.webp,/PRODUCTS/Mobiles/Brand 1/Model 1/images/2.jpg</t>
@@ -1330,7 +1330,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1358,12 +1358,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1408,7 +1402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1426,10 +1420,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1456,7 +1446,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1667,7 +1657,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1925,7 +1915,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2165,7 +2155,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2484,7 +2474,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2857,7 +2847,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3177,7 +3167,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3484,7 +3474,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3605,11 +3595,11 @@
   </sheetPr>
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -3984,7 +3974,7 @@
       <c r="P3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>330</v>
       </c>
       <c r="R3" s="3" t="s">
@@ -4133,7 +4123,7 @@
       <c r="P4" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>330</v>
       </c>
       <c r="R4" s="3" t="s">

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -1070,7 +1070,7 @@
   </si>
   <si>
     <t xml:space="preserve">	
-/PRODUCTS/Mobiles/Brand 1/Model 1/video/1.mp4</t>
+/PRODUCTS/Mobiles/Brand 1/Model 1/video/1.mp4, /PRODUCTS/Mobiles/Brand 1/Model 1/video/poster.png,Video Title,Video Description</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -1330,7 +1330,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1358,6 +1358,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1402,7 +1408,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1420,6 +1426,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1446,7 +1456,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1657,7 +1667,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1915,7 +1925,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2155,7 +2165,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2474,7 +2484,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2847,7 +2857,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3167,7 +3177,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3474,7 +3484,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3595,11 +3605,11 @@
   </sheetPr>
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -3611,7 +3621,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="56.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="49.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="61.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.57"/>
@@ -3977,7 +3987,7 @@
       <c r="Q3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S3" s="3" t="n">
@@ -4126,7 +4136,7 @@
       <c r="Q4" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S4" s="3" t="n">

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="388">
   <si>
     <t xml:space="preserve">Logo</t>
   </si>
@@ -1069,8 +1069,7 @@
     <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/1.webp,/PRODUCTS/Mobiles/Brand 1/Model 1/images/2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-/PRODUCTS/Mobiles/Brand 1/Model 1/video/1.mp4, /PRODUCTS/Mobiles/Brand 1/Model 1/video/poster.png,Video Title,Video Description</t>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/video/1.mp4, /PRODUCTS/Mobiles/Brand 1/Model 1/video/poster.png,Video Title,Video Description</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -1168,6 +1167,10 @@
   </si>
   <si>
     <t xml:space="preserve">Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+/PRODUCTS/Mobiles/Brand 1/Model 1/video/1.mp4, /PRODUCTS/Mobiles/Brand 1/Model 1/video/poster.png,Video Title,Video Description</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -1452,7 +1455,7 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1663,8 +1666,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1921,7 +1924,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2161,7 +2164,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2480,7 +2483,7 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2853,7 +2856,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3173,7 +3176,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3480,7 +3483,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3605,8 +3608,8 @@
   </sheetPr>
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3786,7 +3789,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>317</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>330</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="S3" s="3" t="n">
         <v>85</v>
@@ -4015,13 +4018,13 @@
         <v>30</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB3" s="3" t="n">
         <v>522</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AD3" s="3" t="n">
         <v>55</v>
@@ -4030,19 +4033,19 @@
         <v>18</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG3" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI3" s="3" t="s">
         <v>335</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK3" s="3" t="n">
         <v>1</v>
@@ -4054,7 +4057,7 @@
         <v>130</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO3" s="3" t="n">
         <v>0</v>
@@ -4063,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AR3" s="3" t="s">
         <v>338</v>
@@ -4075,7 +4078,7 @@
         <v>340</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>342</v>
@@ -4086,28 +4089,28 @@
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>20</v>
@@ -4122,13 +4125,13 @@
         <v>326</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>93939</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>329</v>
@@ -4137,7 +4140,7 @@
         <v>330</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="S4" s="3" t="n">
         <v>95</v>
@@ -4164,13 +4167,13 @@
         <v>60</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB4" s="3" t="n">
         <v>1302</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD4" s="3" t="n">
         <v>7.5</v>
@@ -4179,19 +4182,19 @@
         <v>2</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG4" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK4" s="3" t="n">
         <v>1</v>
@@ -4212,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>341</v>
@@ -4235,28 +4238,28 @@
     </row>
     <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4293,13 +4296,13 @@
         <v>60</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB5" s="3" t="n">
         <v>1302</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD5" s="3" t="n">
         <v>7.5</v>
@@ -4308,19 +4311,19 @@
         <v>2</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG5" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK5" s="3" t="n">
         <v>1</v>
@@ -4341,16 +4344,16 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AU5" s="3" t="s">
         <v>341</v>
@@ -4359,7 +4362,7 @@
         <v>342</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Brands" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,7 @@
     <sheet name="Processors" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Storages" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Master Categories" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Categories Variants" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Products" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Products" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="388">
   <si>
     <t xml:space="preserve">Logo</t>
   </si>
@@ -1333,7 +1332,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1361,12 +1360,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1411,7 +1404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1429,10 +1422,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1459,7 +1448,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1670,7 +1659,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1928,7 +1917,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2168,7 +2157,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2487,7 +2476,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2856,11 +2845,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3177,10 +3166,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3481,138 +3470,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AW5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -3990,7 +3854,7 @@
       <c r="Q3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="3" t="s">
         <v>355</v>
       </c>
       <c r="S3" s="3" t="n">
@@ -4139,7 +4003,7 @@
       <c r="Q4" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="3" t="s">
         <v>355</v>
       </c>
       <c r="S4" s="3" t="n">

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="392">
   <si>
     <t xml:space="preserve">Logo</t>
   </si>
@@ -1168,8 +1168,14 @@
     <t xml:space="preserve">Blue</t>
   </si>
   <si>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/images/master.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/images/1.webp,/PRODUCTS/Laptop/Brand 1/Model 1/images/2.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">	
-/PRODUCTS/Mobiles/Brand 1/Model 1/video/1.mp4, /PRODUCTS/Mobiles/Brand 1/Model 1/video/poster.png,Video Title,Video Description</t>
+/PRODUCTS/Laptop/Brand 1/Model 1/video/1.mp4, /PRODUCTS/Laptop/Brand 1/Model 1/video/poster1.png,Video Title,Video Description</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -1191,9 +1197,6 @@
   </si>
   <si>
     <t xml:space="preserve">/Motherboards/BudgetMaster B450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Storages/Samsung EVO 90</t>
   </si>
   <si>
     <r>
@@ -1252,6 +1255,16 @@
   </si>
   <si>
     <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/master2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/1.webp,/PRODUCTS/TV/Brand 1/Model 1/images/2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+/PRODUCTS/TV/Brand 1/Model 1/video/2.mp4, /PRODUCTS/TV/Brand 1/Model 1/video/poster.png,Video Title,Video Description</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -1444,11 +1457,11 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1655,11 +1668,11 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1913,11 +1926,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2153,11 +2166,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2472,11 +2485,11 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2845,11 +2858,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3165,11 +3178,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3472,11 +3485,11 @@
   </sheetPr>
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -3849,13 +3862,13 @@
         <v>354</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S3" s="3" t="n">
         <v>85</v>
@@ -3882,13 +3895,13 @@
         <v>30</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AB3" s="3" t="n">
         <v>522</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AD3" s="3" t="n">
         <v>55</v>
@@ -3897,19 +3910,19 @@
         <v>18</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG3" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AI3" s="3" t="s">
         <v>335</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AK3" s="3" t="n">
         <v>1</v>
@@ -3921,7 +3934,7 @@
         <v>130</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AO3" s="3" t="n">
         <v>0</v>
@@ -3930,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AR3" s="3" t="s">
         <v>338</v>
@@ -3942,7 +3955,7 @@
         <v>340</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>342</v>
@@ -3953,28 +3966,28 @@
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>20</v>
@@ -3989,22 +4002,22 @@
         <v>326</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>93939</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="S4" s="3" t="n">
         <v>95</v>
@@ -4031,13 +4044,13 @@
         <v>60</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AB4" s="3" t="n">
         <v>1302</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AD4" s="3" t="n">
         <v>7.5</v>
@@ -4046,19 +4059,19 @@
         <v>2</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG4" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AK4" s="3" t="n">
         <v>1</v>
@@ -4079,16 +4092,16 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>341</v>
@@ -4100,30 +4113,30 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4135,7 +4148,6 @@
         <v>354</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
       <c r="R5" s="2"/>
       <c r="S5" s="3" t="n">
         <v>89</v>
@@ -4160,13 +4172,13 @@
         <v>60</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AB5" s="3" t="n">
         <v>1302</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AD5" s="3" t="n">
         <v>7.5</v>
@@ -4175,19 +4187,19 @@
         <v>2</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG5" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AK5" s="3" t="n">
         <v>1</v>
@@ -4208,16 +4220,16 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AU5" s="3" t="s">
         <v>341</v>
@@ -4226,7 +4238,7 @@
         <v>342</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="395">
   <si>
     <t xml:space="preserve">Logo</t>
   </si>
@@ -701,6 +701,9 @@
     <t xml:space="preserve">Path</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">/Categories</t>
   </si>
   <si>
@@ -720,6 +723,9 @@
   </si>
   <si>
     <t xml:space="preserve">Catégorie pour les appareils électroniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object</t>
   </si>
   <si>
     <t xml:space="preserve">Clothing</t>
@@ -873,6 +879,9 @@
   </si>
   <si>
     <t xml:space="preserve">Category for Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant</t>
   </si>
   <si>
     <t xml:space="preserve">Laptop</t>
@@ -1345,7 +1354,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1373,6 +1382,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1417,7 +1431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1427,6 +1441,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1457,11 +1475,11 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1668,11 +1686,11 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1926,11 +1944,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2166,11 +2184,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2485,11 +2503,11 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2858,11 +2876,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3176,19 +3194,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,258 +3231,294 @@
       <c r="G1" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3483,13 +3537,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AX5" activeCellId="0" sqref="AX5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -3514,15 +3568,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="24.51"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -3552,106 +3606,106 @@
         <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AD1" s="0" t="s">
         <v>140</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AT1" s="0" t="s">
         <v>188</v>
@@ -3660,585 +3714,600 @@
         <v>204</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="AX1" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="N2" s="3" t="n">
+      <c r="K2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>9030</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>930</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>522</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>150000</v>
-      </c>
-      <c r="U2" s="3" t="n">
+      <c r="M4" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>93939</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="V2" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W2" s="3" t="n">
+      <c r="AL4" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W5" s="4" t="n">
         <v>1200</v>
       </c>
-      <c r="X2" s="3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1170</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG2" s="3" t="n">
+      <c r="X5" s="4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>2022</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AH5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AL2" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM2" s="3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="AL5" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AU5" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="AV5" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>930</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>85</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>40000</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>550</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>522</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="AM3" s="3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="AO3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>93939</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>95</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB4" s="3" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD4" s="3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM4" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3" t="n">
-        <v>89</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W5" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="X5" s="3" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM5" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="AW5" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -1041,10 +1041,10 @@
     <t xml:space="preserve">SKU10001</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-performance mobiles daily work</t>
+    <t xml:space="preserve">Mobile X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-performance mobiles Updated text.</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile XYZ-200</t>
@@ -1312,7 +1312,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/Products/</t>
     </r>
@@ -1321,7 +1320,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Electronics/</t>
     </r>
@@ -1331,9 +1329,8 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Mobiles/Brand 1/Mobile 1</t>
+      <t xml:space="preserve">Mobiles/Brand 1/Mobile X</t>
     </r>
   </si>
   <si>
@@ -1354,7 +1351,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1382,6 +1379,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1431,7 +1434,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1444,7 +1447,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1453,6 +1456,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1479,7 +1486,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1690,7 +1697,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1948,7 +1955,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2188,7 +2195,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2507,7 +2514,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2880,7 +2887,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3196,11 +3203,11 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3539,11 +3546,11 @@
   </sheetPr>
   <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX5" activeCellId="0" sqref="AX5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -3568,7 +3575,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="24.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="24.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4180,7 +4187,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>391</v>
       </c>
       <c r="B5" s="4" t="s">

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -1312,6 +1312,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/Products/</t>
     </r>
@@ -1320,6 +1321,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Electronics/</t>
     </r>
@@ -1329,6 +1331,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Mobiles/Brand 1/Mobile X</t>
     </r>
@@ -1351,7 +1354,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1379,17 +1382,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1434,7 +1426,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1456,10 +1448,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1486,7 +1474,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1697,7 +1685,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1955,7 +1943,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2195,7 +2183,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2514,7 +2502,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2887,7 +2875,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3207,7 +3195,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3547,10 +3535,10 @@
   <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -3575,7 +3563,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="24.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="24.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4175,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>391</v>
       </c>
       <c r="B5" s="4" t="s">

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="399">
   <si>
     <t xml:space="preserve">Logo</t>
   </si>
@@ -1323,6 +1323,58 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Electronics/Laptop</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Brand 1/</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Laptop X</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop Variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop XYZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3G,4G,5G,2G</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Products/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Electronics/</t>
     </r>
     <r>
@@ -1333,17 +1385,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Mobiles/Brand 1/Mobile X</t>
+      <t xml:space="preserve">Mobiles/Brand 2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SKU10004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile 1 Variants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3G,4G,5G,2G</t>
+    <t xml:space="preserve">SKU1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Y</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1403,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1382,6 +1431,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1474,7 +1529,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1685,7 +1740,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1943,7 +1998,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2183,7 +2238,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2502,7 +2557,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2875,7 +2930,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3195,7 +3250,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3532,13 +3587,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AX5"/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>
@@ -4174,7 +4229,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>391</v>
       </c>
@@ -4185,16 +4240,16 @@
         <v>393</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>375</v>
@@ -4299,10 +4354,162 @@
         <v>345</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AX5" s="3" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>9030</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -1239,7 +1239,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SKU10003</t>
+    <t xml:space="preserve">SKU1003</t>
   </si>
   <si>
     <t xml:space="preserve">TV X</t>
@@ -1333,16 +1333,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/Brand 1/</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Laptop X</t>
+      <t xml:space="preserve">/Brand 1/Laptop X</t>
     </r>
   </si>
   <si>
@@ -1403,7 +1394,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1431,12 +1422,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1529,7 +1514,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
@@ -1740,7 +1725,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -1998,7 +1983,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -2238,7 +2223,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -2557,7 +2542,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
@@ -2930,7 +2915,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
@@ -3250,7 +3235,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
@@ -3590,10 +3575,10 @@
   <dimension ref="A1:AX6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.92"/>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Brands en" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,8 @@
     <sheet name="Processors en" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="RAMs en" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="SSDs en" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Categories" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Categories en" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Products en" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="295">
   <si>
     <t xml:space="preserve">Object Name</t>
   </si>
@@ -668,6 +669,9 @@
     <t xml:space="preserve">150 TBW</t>
   </si>
   <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slug</t>
   </si>
   <si>
@@ -768,6 +772,147 @@
   </si>
   <si>
     <t xml:space="preserve">peripherals, add-ons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Image Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity Sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availablity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selling Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breadth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimension Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wattage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Of Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battries Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battries Included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensors Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectivity Technolgies</t>
   </si>
 </sst>
 </file>
@@ -777,7 +922,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -801,21 +946,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -878,8 +1012,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -887,22 +1037,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -925,11 +1059,11 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1034,7 +1168,7 @@
       <c r="E3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1043,7 +1177,7 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1072,7 +1206,7 @@
       <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1081,7 +1215,7 @@
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1110,7 +1244,7 @@
       <c r="E5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1119,7 +1253,7 @@
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1160,11 +1294,11 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -1268,7 +1402,7 @@
       <c r="G3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1303,7 +1437,7 @@
       <c r="G4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1338,7 +1472,7 @@
       <c r="G5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1373,7 +1507,7 @@
       <c r="G6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1447,16 +1581,16 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.68"/>
   </cols>
@@ -1465,43 +1599,43 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O1" s="0" t="s">
@@ -1518,37 +1652,37 @@
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="M2" s="0" t="s">
@@ -1571,37 +1705,37 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M3" s="0" t="s">
@@ -1610,7 +1744,7 @@
       <c r="N3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -1624,37 +1758,37 @@
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="M4" s="0" t="s">
@@ -1663,7 +1797,7 @@
       <c r="N4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -1696,11 +1830,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -1710,9 +1844,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1856,7 +1990,7 @@
       <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1906,7 +2040,7 @@
       <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -1947,119 +2081,119 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>146</v>
       </c>
       <c r="P2" s="0" t="s">
@@ -2070,49 +2204,49 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>158</v>
       </c>
       <c r="P3" s="0" t="s">
@@ -2123,49 +2257,49 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>170</v>
       </c>
       <c r="P4" s="0" t="s">
@@ -2198,18 +2332,18 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -2230,27 +2364,27 @@
       <c r="G1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>3200</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -2261,22 +2395,22 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>2400</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -2287,22 +2421,22 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="4" t="n">
         <v>3600</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -2330,19 +2464,19 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -2377,107 +2511,107 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2497,171 +2631,402 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BB1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="13.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>246</v>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="350">
   <si>
     <t xml:space="preserve">Object Name</t>
   </si>
@@ -774,7 +774,13 @@
     <t xml:space="preserve">peripherals, add-ons</t>
   </si>
   <si>
-    <t xml:space="preserve">Storage Path</t>
+    <t xml:space="preserve">Fridges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electronics/fridges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridge, cooling</t>
   </si>
   <si>
     <t xml:space="preserve">SKU</t>
@@ -783,7 +789,7 @@
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub Category</t>
+    <t xml:space="preserve">Sub Categories</t>
   </si>
   <si>
     <t xml:space="preserve">Color</t>
@@ -801,6 +807,15 @@
     <t xml:space="preserve">Video Link</t>
   </si>
   <si>
+    <t xml:space="preserve">Video Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity Sold</t>
   </si>
   <si>
@@ -873,10 +888,10 @@
     <t xml:space="preserve">Country Of Origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Battries Required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battries Included</t>
+    <t xml:space="preserve">Batteries Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batteries Included</t>
   </si>
   <si>
     <t xml:space="preserve">Camera</t>
@@ -913,6 +928,156 @@
   </si>
   <si>
     <t xml:space="preserve">Connectivity Technolgies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics/Mobiles/BrandX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phones, Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/master.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/video/poster1.png,/PRODUCTS/TV/Brand 1/Model 1/video/poster.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/video/1.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/video/poster.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centimeters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB 3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Sensors Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2G,3G,4G,5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics/Tvs/BrandY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tvs, Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/images/master.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/2.jpeg,/PRODUCTS/Laptop/Brand 1/Model 1/images/2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics/Laptops/BrandXY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of the Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptops, Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/master2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModelXYZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluetooth,Edge</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1124,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1007,7 +1171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1040,6 +1204,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,8 +1227,8 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1295,7 +1463,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2631,10 +2799,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2821,6 +2989,26 @@
       </c>
       <c r="F9" s="4" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2839,194 +3027,707 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BB1"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG7" activeCellId="0" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="13.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="15.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="35.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="37.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="13.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="31.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="K1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="M1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="N1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="O1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="P1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="Q1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="R1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="S1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="T1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="U1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="V1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="W1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="X1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="Y1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="Z1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AA1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AB1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AC1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AD1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AK1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AL1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AM1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AN1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AO1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AP1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AR1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AS1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AT1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AU1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AV1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AW1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AX1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="AY1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>294</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO2" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="AP2" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AP3" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AP4" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="357">
   <si>
     <t xml:space="preserve">Object Name</t>
   </si>
@@ -783,6 +783,12 @@
     <t xml:space="preserve">fridge, cooling</t>
   </si>
   <si>
+    <t xml:space="preserve">Storage Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKU</t>
   </si>
   <si>
@@ -1002,6 +1008,9 @@
     <t xml:space="preserve">Speaker2</t>
   </si>
   <si>
+    <t xml:space="preserve">HDD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">2G,3G,4G,5G</t>
   </si>
   <si>
@@ -1078,6 +1087,18 @@
   </si>
   <si>
     <t xml:space="preserve">Bluetooth,Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1122,11 +1143,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1171,7 +1187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1200,12 +1216,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1231,7 +1243,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1466,7 +1478,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -1753,12 +1765,12 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.68"/>
   </cols>
@@ -2002,7 +2014,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -2253,7 +2265,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
@@ -2504,7 +2516,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
@@ -2636,9 +2648,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.9"/>
   </cols>
@@ -2805,7 +2817,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>
@@ -3004,7 +3016,7 @@
       <c r="D10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F10" s="0" t="s">
@@ -3027,39 +3039,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BE4"/>
+  <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG7" activeCellId="0" sqref="AG7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="35.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="37.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="13.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="15.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="22.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="35.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="37.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="31.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,667 +3079,843 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>251</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="D1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="AL1" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>302</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="S2" s="4" t="n">
+        <v>313</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="T2" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="U2" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="V2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="W2" s="4" t="n">
         <v>4.5</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="X2" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Z2" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="AA2" s="4" t="n">
         <v>20</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>10</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10</v>
       </c>
       <c r="AC2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AE2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI2" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="AI2" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="AJ2" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK2" s="4" t="n">
+        <v>316</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AL2" s="4" t="n">
         <v>2022</v>
       </c>
-      <c r="AL2" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="AM2" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="AO2" s="4" t="n">
+        <v>319</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP2" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="AP2" s="4" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>1</v>
       </c>
       <c r="AS2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AT2" s="4" t="s">
-        <v>319</v>
+      <c r="AT2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AU2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AY2" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="AZ2" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BC2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="BD2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="BD2" s="4"/>
       <c r="BE2" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>327</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>328</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>329</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="R3" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="R3" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="U3" s="4" t="n">
         <v>1200</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="V3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="W3" s="4" t="n">
         <v>4.2</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="X3" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="Y3" s="4" t="n">
         <v>900</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Z3" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="AA3" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AB3" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AC3" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AD3" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AE3" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="AG3" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="AJ3" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AK3" s="4" t="n">
+        <v>316</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL3" s="4" t="n">
         <v>2023</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="AM3" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="AO3" s="4" t="n">
+        <v>340</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP3" s="4" t="n">
         <v>220</v>
       </c>
-      <c r="AP3" s="4" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AR3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AR3" s="4" t="n">
+      <c r="AS3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AS3" s="4" t="n">
+      <c r="AT3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
-      <c r="AZ3" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="AZ3" s="4"/>
       <c r="BA3" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="BC3" s="4"/>
+        <v>324</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="BD3" s="4"/>
-      <c r="BE3" s="4" t="s">
-        <v>338</v>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN4" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="AO4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP4" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AQ4" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="AS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="R4" s="8" t="s">
+      <c r="L5" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="R5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="T5" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="U5" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="V5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="W5" s="4" t="n">
         <v>4.7</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="X5" s="4" t="n">
         <v>800</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="Y5" s="4" t="n">
         <v>1200</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Z5" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="AA5" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AB5" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AC5" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AD5" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AE5" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="AE4" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF5" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="AG4" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH5" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI5" s="4" t="n">
         <v>2.2</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AK4" s="4" t="n">
+      <c r="AJ5" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL5" s="4" t="n">
         <v>2023</v>
       </c>
-      <c r="AL4" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="AO4" s="4" t="n">
+      <c r="AM5" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP5" s="4" t="n">
         <v>220</v>
       </c>
-      <c r="AP4" s="4" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="4" t="n">
+      <c r="AS5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AS4" s="4" t="n">
+      <c r="AT5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4" t="s">
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AW5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AW4" s="4" t="s">
+      <c r="AX5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AX4" s="4" t="s">
+      <c r="AY5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="BB4" s="4" t="s">
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4" t="s">
-        <v>349</v>
+      <c r="BB5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Brands en" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,9 @@
     <sheet name="Processors en" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="RAMs en" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="SSDs en" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Categories en" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Products en" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sensors Set" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Categories en" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Products en" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="383">
   <si>
     <t xml:space="preserve">Object Name</t>
   </si>
@@ -669,6 +670,84 @@
     <t xml:space="preserve">150 TBW</t>
   </si>
   <si>
+    <t xml:space="preserve">Product Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device for monitoring room conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy machinery operational monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart appliance for cooking tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET3-SNSR001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TempSensor-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures ambient temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET2-SNSR002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibration-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detects machine vibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET2-SNSR001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HeatSensor-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitors cooking temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parent</t>
   </si>
   <si>
@@ -921,7 +1000,7 @@
     <t xml:space="preserve">Screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensors Set</t>
+    <t xml:space="preserve">Sensor Sets</t>
   </si>
   <si>
     <t xml:space="preserve">Speakers</t>
@@ -1239,11 +1318,11 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1467,6 +1546,901 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BF5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AU1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="35.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="37.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="31.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP2" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="AQ2" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP3" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AQ3" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP4" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AQ4" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP5" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AQ5" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1474,11 +2448,11 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -1761,11 +2735,11 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
@@ -2010,11 +2984,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -2261,11 +3235,11 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
@@ -2512,11 +3486,11 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
@@ -2644,11 +3618,11 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
@@ -2811,216 +3785,167 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>224</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>250</v>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3039,883 +3964,216 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="35.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="37.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE1" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="F10" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>240</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>900</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI4" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI5" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Brands en" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="386">
   <si>
     <t xml:space="preserve">Object Name</t>
   </si>
@@ -862,322 +862,331 @@
     <t xml:space="preserve">fridge, cooling</t>
   </si>
   <si>
-    <t xml:space="preserve">Storage Location</t>
+    <t xml:space="preserve">Product Hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Image Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity Sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availablity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selling Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breadth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimension Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wattage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Of Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batteries Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batteries Included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor Sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectivity Technolgies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics/Mobiles/BrandX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phones, Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/master.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/video/poster1.png,/PRODUCTS/TV/Brand 1/Model 1/video/poster.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/video/1.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/video/poster.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centimeters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB 3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Sensors Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2G,3G,4G,5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics/Tvs/BrandY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tvs, Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/images/master.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/2.jpeg,/PRODUCTS/Laptop/Brand 1/Model 1/images/2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics/Laptops/BrandXY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of the Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptops, Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/master2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModelXYZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluetooth,Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics/Mobiles/BrandX/Mobile</t>
   </si>
   <si>
     <t xml:space="preserve">Variant</t>
   </si>
   <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Image Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Poster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Availablity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selling Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breadth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimension Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wattage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country Of Origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batteries Required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batteries Included</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Sets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speakers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectivity Technolgies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronics/Mobiles/BrandX</t>
-  </si>
-  <si>
     <t xml:space="preserve">SKU001</t>
   </si>
   <si>
-    <t xml:space="preserve">Description of Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phones, Accessories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/images/master.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/video/poster1.png,/PRODUCTS/TV/Brand 1/Model 1/video/poster.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/video/1.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/Mobiles/Brand 1/Model 1/video/poster.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centimeters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB 3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROM 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Sensors Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2G,3G,4G,5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronics/Tvs/BrandY</t>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics/Tvs/BrandY/TV</t>
   </si>
   <si>
     <t xml:space="preserve">SKU002</t>
   </si>
   <si>
-    <t xml:space="preserve">Description of TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tvs, Accessories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/Laptop/Brand 1/Model 1/images/master.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/2.jpeg,/PRODUCTS/Laptop/Brand 1/Model 1/images/2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronics/Laptops/BrandXY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of the Laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptops, Accessories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/master2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModelXYZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bluetooth,Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
+    <t xml:space="preserve">Electronics/Laptops/BrandXY/Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU003</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1222,6 +1231,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1266,7 +1286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1295,8 +1315,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1319,10 +1343,10 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1551,13 +1575,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF5"/>
+  <dimension ref="A1:BF7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AU1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -1770,11 +1794,9 @@
         <v>329</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>331</v>
@@ -1944,11 +1966,9 @@
         <v>355</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>357</v>
@@ -2104,14 +2124,12 @@
         <v>369</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -2126,7 +2144,7 @@
         <v>242</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>333</v>
@@ -2135,7 +2153,7 @@
         <v>334</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>362</v>
@@ -2147,7 +2165,7 @@
         <v>338</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>340</v>
@@ -2204,13 +2222,13 @@
         <v>342</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AL4" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN4" s="4" t="s">
         <v>366</v>
@@ -2259,24 +2277,21 @@
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
       <c r="BF4" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C5" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>380</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>50</v>
@@ -2297,13 +2312,13 @@
         <v>332</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>334</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>362</v>
@@ -2315,7 +2330,7 @@
         <v>338</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>340</v>
@@ -2372,13 +2387,13 @@
         <v>342</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AL5" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN5" s="4" t="s">
         <v>366</v>
@@ -2427,7 +2442,331 @@
       <c r="BD5" s="4"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP6" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AQ6" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP7" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AQ7" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2449,10 +2788,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -2736,10 +3075,10 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
@@ -2985,10 +3324,10 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -3236,10 +3575,10 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
@@ -3487,10 +3826,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
@@ -3619,10 +3958,10 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
@@ -3787,11 +4126,11 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.31"/>
@@ -3967,10 +4306,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="386">
   <si>
     <t xml:space="preserve">Object Name</t>
   </si>
@@ -1196,7 +1196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1231,12 +1231,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1286,7 +1280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1316,11 +1310,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1343,10 +1333,10 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1578,10 +1568,10 @@
   <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -1617,7 +1607,7 @@
       <c r="B1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>278</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2284,7 +2274,7 @@
       <c r="B5" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -2429,7 +2419,9 @@
       <c r="AY5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AZ5" s="4"/>
+      <c r="AZ5" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="BA5" s="4" t="s">
         <v>349</v>
       </c>
@@ -2439,20 +2431,24 @@
       <c r="BC5" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
+      <c r="BD5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="BF5" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="1" t="s">
         <v>383</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2605,13 +2601,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2788,10 +2784,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -3075,10 +3071,10 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
@@ -3324,10 +3320,10 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -3575,10 +3571,10 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
@@ -3826,10 +3822,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
@@ -3958,10 +3954,10 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
@@ -4127,10 +4123,10 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.31"/>
@@ -4306,10 +4302,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -1196,7 +1196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1231,11 +1231,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1280,7 +1275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1309,10 +1304,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,7 +1327,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1568,10 +1559,10 @@
   <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -2419,7 +2410,7 @@
       <c r="AY5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AZ5" s="7" t="s">
+      <c r="AZ5" s="4" t="s">
         <v>348</v>
       </c>
       <c r="BA5" s="4" t="s">
@@ -2431,10 +2422,10 @@
       <c r="BC5" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="BD5" s="7" t="s">
+      <c r="BD5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="BE5" s="7" t="s">
+      <c r="BE5" s="4" t="s">
         <v>352</v>
       </c>
       <c r="BF5" s="4" t="s">
@@ -2787,7 +2778,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -3074,7 +3065,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
@@ -3323,7 +3314,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -3574,7 +3565,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
@@ -3825,7 +3816,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
@@ -3957,7 +3948,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
@@ -4126,7 +4117,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.31"/>
@@ -4305,7 +4296,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="413">
   <si>
     <t xml:space="preserve">Object Name</t>
   </si>
@@ -1015,6 +1015,54 @@
     <t xml:space="preserve">Connectivity Technolgies</t>
   </si>
   <si>
+    <t xml:space="preserve">Classification Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productivity Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multitasking Capabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Software Compatibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processor Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera Specs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photography Modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Stabilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editing Software Compatibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value for Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essential Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affordability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mobile</t>
   </si>
   <si>
@@ -1177,16 +1225,49 @@
     <t xml:space="preserve">Red</t>
   </si>
   <si>
+    <t xml:space="preserve">Gaming and Entertainment,Photography Enthusiasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Enter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Electronics/Tvs/BrandY/TV</t>
   </si>
   <si>
     <t xml:space="preserve">SKU002</t>
   </si>
   <si>
+    <t xml:space="preserve">Gaming and Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desc 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Electronics/Laptops/BrandXY/Laptop</t>
   </si>
   <si>
     <t xml:space="preserve">SKU003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget Conscious Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desc 3</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1408,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1556,13 +1637,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF7"/>
+  <dimension ref="A1:BV7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BH1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BK1" activeCellId="0" sqref="BK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -1589,6 +1670,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="16.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="44.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="17.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="23.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="13.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="18.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="17.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="25.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="17.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,21 +1861,69 @@
       <c r="BF1" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="BG1" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -1795,31 +1938,31 @@
         <v>242</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>100</v>
@@ -1858,34 +2001,34 @@
         <v>20</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>50</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AI2" s="4" t="n">
         <v>2.5</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="AL2" s="4" t="n">
         <v>2022</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AP2" s="4" t="n">
         <v>240</v>
@@ -1903,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>64</v>
@@ -1918,41 +2061,41 @@
         <v>184</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="BD2" s="4" t="s">
         <v>208</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -1967,31 +2110,31 @@
         <v>242</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>150</v>
@@ -2030,34 +2173,34 @@
         <v>25</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>60</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AI3" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="AL3" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AP3" s="4" t="n">
         <v>220</v>
@@ -2083,34 +2226,34 @@
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="BD3" s="4"/>
       <c r="BE3" s="4"/>
       <c r="BF3" s="4" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -2125,31 +2268,31 @@
         <v>242</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>120</v>
@@ -2188,34 +2331,34 @@
         <v>30</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>45</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AI4" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="AL4" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AP4" s="4" t="n">
         <v>220</v>
@@ -2247,32 +2390,32 @@
       </c>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="BC4" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
       <c r="BF4" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>50</v>
@@ -2290,31 +2433,31 @@
         <v>242</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>120</v>
@@ -2353,34 +2496,34 @@
         <v>30</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>45</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AI5" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="AL5" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AP5" s="4" t="n">
         <v>220</v>
@@ -2411,42 +2554,90 @@
         <v>184</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="BD5" s="4" t="s">
         <v>208</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="BF5" s="4" t="s">
-        <v>377</v>
+        <v>393</v>
+      </c>
+      <c r="BG5" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="BH5" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="BI5" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ5" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="BK5" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="BL5" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM5" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="BN5" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>15</v>
@@ -2461,31 +2652,31 @@
         <v>242</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="T6" s="4" t="n">
         <v>150</v>
@@ -2524,34 +2715,34 @@
         <v>25</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AG6" s="4" t="n">
         <v>60</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AI6" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="AL6" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AP6" s="4" t="n">
         <v>220</v>
@@ -2577,35 +2768,83 @@
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
       <c r="BF6" s="4" t="s">
-        <v>367</v>
+        <v>383</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
@@ -2620,31 +2859,31 @@
         <v>242</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>120</v>
@@ -2683,34 +2922,34 @@
         <v>30</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AG7" s="4" t="n">
         <v>45</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AI7" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="AL7" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AP7" s="4" t="n">
         <v>220</v>
@@ -2742,18 +2981,66 @@
       </c>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="BD7" s="4"/>
       <c r="BE7" s="4"/>
       <c r="BF7" s="4" t="s">
-        <v>377</v>
+        <v>393</v>
+      </c>
+      <c r="BG7" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +3065,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -3065,7 +3352,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
@@ -3314,7 +3601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -3565,7 +3852,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
@@ -3816,7 +4103,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
@@ -3948,7 +4235,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
@@ -4117,7 +4404,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.31"/>
@@ -4296,7 +4583,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -1408,7 +1408,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1639,11 +1639,11 @@
   </sheetPr>
   <dimension ref="A1:BV7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BH1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BK1" activeCellId="0" sqref="BK1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BG7" activeCellId="0" sqref="BG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -3065,7 +3065,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -3352,7 +3352,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
@@ -3601,7 +3601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -3852,7 +3852,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
@@ -4103,7 +4103,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
@@ -4235,7 +4235,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
@@ -4404,7 +4404,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.31"/>
@@ -4583,7 +4583,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>

--- a/imports/Database.xlsx
+++ b/imports/Database.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Processors en" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="RAMs en" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="SSDs en" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sensors Set" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Sensor Stack en" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Categories en" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Products en" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="394">
   <si>
     <t xml:space="preserve">Object Name</t>
   </si>
@@ -670,13 +670,7 @@
     <t xml:space="preserve">150 TBW</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Type</t>
+    <t xml:space="preserve">Sensors</t>
   </si>
   <si>
     <t xml:space="preserve">Set 1</t>
@@ -685,9 +679,6 @@
     <t xml:space="preserve">Environmental</t>
   </si>
   <si>
-    <t xml:space="preserve">Set</t>
-  </si>
-  <si>
     <t xml:space="preserve">Device for monitoring room conditions</t>
   </si>
   <si>
@@ -709,45 +700,6 @@
     <t xml:space="preserve">Smart appliance for cooking tasks</t>
   </si>
   <si>
-    <t xml:space="preserve">SET3-SNSR001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TempSensor-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measures ambient temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET2-SNSR002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vibration-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detects machine vibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET2-SNSR001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HeatSensor-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitors cooking temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parent</t>
   </si>
   <si>
@@ -805,7 +757,7 @@
     <t xml:space="preserve">photography, devices</t>
   </si>
   <si>
-    <t xml:space="preserve">TVs</t>
+    <t xml:space="preserve">Tvs</t>
   </si>
   <si>
     <t xml:space="preserve">TVs Category</t>
@@ -874,7 +826,7 @@
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub Categories</t>
+    <t xml:space="preserve">Sub Category</t>
   </si>
   <si>
     <t xml:space="preserve">Color</t>
@@ -1075,9 +1027,6 @@
     <t xml:space="preserve">Description of Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">Phones, Accessories</t>
-  </si>
-  <si>
     <t xml:space="preserve">Black</t>
   </si>
   <si>
@@ -1153,9 +1102,6 @@
     <t xml:space="preserve">Description of TV</t>
   </si>
   <si>
-    <t xml:space="preserve">Tvs, Accessories</t>
-  </si>
-  <si>
     <t xml:space="preserve">Silver</t>
   </si>
   <si>
@@ -1193,9 +1139,6 @@
   </si>
   <si>
     <t xml:space="preserve">Description of the Laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptops, Accessories</t>
   </si>
   <si>
     <t xml:space="preserve">/PRODUCTS/TV/Brand 1/Model 1/images/master2.png</t>
@@ -1408,7 +1351,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1639,11 +1582,11 @@
   </sheetPr>
   <dimension ref="A1:BV7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BG7" activeCellId="0" sqref="BG7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -1691,13 +1634,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1715,215 +1658,215 @@
         <v>60</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AL1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="BB1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BG1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BH1" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BI1" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BK1" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BL1" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BM1" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BN1" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BO1" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BP1" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BQ1" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BR1" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BS1" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BT1" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BU1" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BV1" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="BH1" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="BI1" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ1" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="BK1" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="BL1" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM1" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="BN1" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="BO1" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="BP1" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="BQ1" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="BR1" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="BS1" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="BT1" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="BU1" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="BV1" s="0" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -1935,34 +1878,34 @@
         <v>37</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>100</v>
@@ -2001,34 +1944,34 @@
         <v>20</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>50</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AI2" s="4" t="n">
         <v>2.5</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="AL2" s="4" t="n">
         <v>2022</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="AP2" s="4" t="n">
         <v>240</v>
@@ -2046,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>64</v>
@@ -2061,41 +2004,41 @@
         <v>184</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="BD2" s="4" t="s">
         <v>208</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -2107,34 +2050,34 @@
         <v>38</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>150</v>
@@ -2173,34 +2116,34 @@
         <v>25</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>60</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AI3" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="AL3" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="AP3" s="4" t="n">
         <v>220</v>
@@ -2226,34 +2169,34 @@
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="BD3" s="4"/>
       <c r="BE3" s="4"/>
       <c r="BF3" s="4" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -2265,34 +2208,34 @@
         <v>40</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>388</v>
+        <v>234</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>120</v>
@@ -2331,34 +2274,34 @@
         <v>30</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>45</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AI4" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AL4" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="AP4" s="4" t="n">
         <v>220</v>
@@ -2390,32 +2333,32 @@
       </c>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="BC4" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
       <c r="BF4" s="4" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>50</v>
@@ -2430,34 +2373,34 @@
         <v>37</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>120</v>
@@ -2496,34 +2439,34 @@
         <v>30</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>45</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AI5" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AL5" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="AP5" s="4" t="n">
         <v>220</v>
@@ -2554,90 +2497,90 @@
         <v>184</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="BD5" s="4" t="s">
         <v>208</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="BF5" s="4" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="BG5" s="0" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="BH5" s="0" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="BI5" s="0" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="BJ5" s="0" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="BK5" s="0" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="BL5" s="0" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="BM5" s="0" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="BN5" s="0" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>15</v>
@@ -2649,34 +2592,34 @@
         <v>38</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="T6" s="4" t="n">
         <v>150</v>
@@ -2715,34 +2658,34 @@
         <v>25</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AG6" s="4" t="n">
         <v>60</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AI6" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="AL6" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="AP6" s="4" t="n">
         <v>220</v>
@@ -2768,83 +2711,83 @@
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
       <c r="BF6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BK6" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BG6" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="BL6" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
@@ -2856,34 +2799,34 @@
         <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>388</v>
+        <v>234</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>120</v>
@@ -2922,34 +2865,34 @@
         <v>30</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AG7" s="4" t="n">
         <v>45</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AI7" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AL7" s="4" t="n">
         <v>2023</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="AP7" s="4" t="n">
         <v>220</v>
@@ -2981,66 +2924,66 @@
       </c>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="BD7" s="4"/>
       <c r="BE7" s="4"/>
       <c r="BF7" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="BG7" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="BH7" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BG7" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="BI7" s="1" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3065,7 +3008,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -3352,7 +3295,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
@@ -3601,7 +3544,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.29"/>
@@ -3852,7 +3795,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
@@ -4103,7 +4046,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
@@ -4235,7 +4178,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
@@ -4398,18 +4341,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,148 +4360,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4580,10 +4421,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.03"/>
@@ -4596,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -4605,188 +4446,188 @@
         <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
